--- a/data/trans_orig/P72-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P72-Dificultad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5328</v>
+        <v>4394</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002362595586442697</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01427242357970452</v>
+        <v>0.01176999117717578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5028</v>
+        <v>4715</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001872003397815903</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01004319342256696</v>
+        <v>0.009416890055578598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6667</v>
+        <v>5759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002081550889130653</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00762839893560188</v>
+        <v>0.006589777303228152</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5530</v>
+        <v>4936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002270588683734381</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0148153810421827</v>
+        <v>0.01322199509907571</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>3123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8380</v>
+        <v>8578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00623871907188483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001891213451679878</v>
+        <v>0.001905847449183835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01673777047782921</v>
+        <v>0.01713342355135794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -856,19 +856,19 @@
         <v>3971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9980</v>
+        <v>9526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004543804665737807</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001146979270384385</v>
+        <v>0.001153306979790562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01141899359287242</v>
+        <v>0.01089989647778836</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>4444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1635</v>
+        <v>1040</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11255</v>
+        <v>10694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01190538689739039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004379828448072638</v>
+        <v>0.002786621655700882</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03014988022983571</v>
+        <v>0.0286478280693113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4932</v>
+        <v>5734</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001958926264884779</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009850323719725029</v>
+        <v>0.01145318512086827</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -927,19 +927,19 @@
         <v>5425</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1849</v>
+        <v>1749</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13385</v>
+        <v>11994</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006207375223757249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002116150296845725</v>
+        <v>0.002001144025667753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01531606512490389</v>
+        <v>0.01372372767670762</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>4604</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1718</v>
+        <v>1750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9832</v>
+        <v>11123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01233401410253809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004601835240709954</v>
+        <v>0.004687099872984599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0263376407652178</v>
+        <v>0.02979799946743967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -977,19 +977,19 @@
         <v>12161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6682</v>
+        <v>6307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21301</v>
+        <v>20947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02429037993235864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01334579452494023</v>
+        <v>0.01259797594300342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04254635929900483</v>
+        <v>0.04183964107467955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -998,19 +998,19 @@
         <v>16765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9448</v>
+        <v>10207</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26225</v>
+        <v>26188</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01918343668506973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01081107603641386</v>
+        <v>0.01167940869949256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03000734213955645</v>
+        <v>0.02996559046244054</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>51260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40281</v>
+        <v>39281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66051</v>
+        <v>64954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1373198618874206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1079091146171762</v>
+        <v>0.1052293787309441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1769441824189316</v>
+        <v>0.1740037939188313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1048,19 +1048,19 @@
         <v>59066</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45984</v>
+        <v>46784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74488</v>
+        <v>74464</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1179771395080867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09184831594145729</v>
+        <v>0.09344608434206872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.148780601306637</v>
+        <v>0.1487328141236449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -1069,19 +1069,19 @@
         <v>110326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90503</v>
+        <v>91701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131565</v>
+        <v>131979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1262390300227571</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1035565852920853</v>
+        <v>0.1049280471087293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1505414321353302</v>
+        <v>0.1510151991744033</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>127799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>108661</v>
+        <v>109718</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147480</v>
+        <v>145649</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3423583833138804</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2910916317776493</v>
+        <v>0.2939232472810393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3950835262931557</v>
+        <v>0.3901776352439309</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>152</v>
@@ -1119,19 +1119,19 @@
         <v>157866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>136647</v>
+        <v>135937</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>178679</v>
+        <v>178474</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.31531903579876</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2729367144189652</v>
+        <v>0.2715186122830424</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3568920796224937</v>
+        <v>0.3564821563254498</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>273</v>
@@ -1140,19 +1140,19 @@
         <v>285664</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>258767</v>
+        <v>258624</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>315358</v>
+        <v>316162</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3268683991395031</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2960917025365821</v>
+        <v>0.2959281891708071</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3608450119538346</v>
+        <v>0.3617653171209095</v>
       </c>
     </row>
     <row r="10">
@@ -1169,19 +1169,19 @@
         <v>164844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146373</v>
+        <v>145721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185940</v>
+        <v>185649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4415983335241069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3921166294634034</v>
+        <v>0.3903705784388944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4981116995577462</v>
+        <v>0.497333402101906</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1190,19 +1190,19 @@
         <v>203459</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179638</v>
+        <v>181323</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223508</v>
+        <v>225617</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4063866381209763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3588070676685989</v>
+        <v>0.3621719633261446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4464321972816298</v>
+        <v>0.4506442974498828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>359</v>
@@ -1211,19 +1211,19 @@
         <v>368303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339740</v>
+        <v>340610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>398075</v>
+        <v>399036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4214266705709796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3887437050630156</v>
+        <v>0.3897392551464801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4554932447333954</v>
+        <v>0.456592576712504</v>
       </c>
     </row>
     <row r="11">
@@ -1240,19 +1240,19 @@
         <v>18609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11087</v>
+        <v>11413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30652</v>
+        <v>28082</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04985083600448655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02970139380909239</v>
+        <v>0.03057425002226218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0821134047549657</v>
+        <v>0.07522863697334667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1261,19 +1261,19 @@
         <v>63061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49621</v>
+        <v>49644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77866</v>
+        <v>79310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1259571579052329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09911275939256645</v>
+        <v>0.09915885985093807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1555294677727302</v>
+        <v>0.1584123573305466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>79</v>
@@ -1282,19 +1282,19 @@
         <v>81670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65262</v>
+        <v>65737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>100223</v>
+        <v>99996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09344973280306486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07467568405438554</v>
+        <v>0.07521912702084725</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1146788399893863</v>
+        <v>0.114419053559943</v>
       </c>
     </row>
     <row r="12">
@@ -1433,19 +1433,19 @@
         <v>6577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2224</v>
+        <v>2055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15130</v>
+        <v>14948</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01053880085819954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003563483458034481</v>
+        <v>0.003292899749056016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02424239670423844</v>
+        <v>0.02395136992563336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4626</v>
+        <v>4391</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001735191211615364</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007922762178893639</v>
+        <v>0.007521427213721086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1475,19 +1475,19 @@
         <v>7591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3065</v>
+        <v>2921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16526</v>
+        <v>15480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006283727048615305</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002537388092595998</v>
+        <v>0.002417941282973953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01368076590739322</v>
+        <v>0.01281490851335717</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>6688</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2217</v>
+        <v>2880</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13976</v>
+        <v>13897</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01071670448689678</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003551928762973992</v>
+        <v>0.004614257846843991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02239397292061324</v>
+        <v>0.02226682016588004</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -1525,19 +1525,19 @@
         <v>13702</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7710</v>
+        <v>7307</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22571</v>
+        <v>22851</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02346793210053472</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01320501169557183</v>
+        <v>0.0125156617227362</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03865969110357449</v>
+        <v>0.03913812369614966</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>19</v>
@@ -1546,19 +1546,19 @@
         <v>20390</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12329</v>
+        <v>13218</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31470</v>
+        <v>32107</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01687979177006479</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.010206529368678</v>
+        <v>0.01094253935820065</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02605196115926381</v>
+        <v>0.02657945348960977</v>
       </c>
     </row>
     <row r="16">
@@ -1575,19 +1575,19 @@
         <v>54472</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41218</v>
+        <v>41733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68040</v>
+        <v>70865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08727875778307545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06604266247722536</v>
+        <v>0.06686674923391864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1090175374441946</v>
+        <v>0.113543933714022</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1596,19 +1596,19 @@
         <v>42845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31866</v>
+        <v>31472</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55056</v>
+        <v>55533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07338455481857772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05457945624114875</v>
+        <v>0.05390504684300193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09429819663323864</v>
+        <v>0.09511605765453283</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -1617,19 +1617,19 @@
         <v>97318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80857</v>
+        <v>80381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117182</v>
+        <v>116254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08056323295716258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06693618193423645</v>
+        <v>0.06654279317836938</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09700758306096363</v>
+        <v>0.09623993220249592</v>
       </c>
     </row>
     <row r="17">
@@ -1646,19 +1646,19 @@
         <v>190802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165367</v>
+        <v>167381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216146</v>
+        <v>215188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3057152441301664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2649622430621282</v>
+        <v>0.2681893870733864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3463233821174412</v>
+        <v>0.3447888343390652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -1667,19 +1667,19 @@
         <v>141740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122118</v>
+        <v>123147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164136</v>
+        <v>163429</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2427677450394721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.209161040799425</v>
+        <v>0.2109228838609252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2811282063976466</v>
+        <v>0.2799161513083332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -1688,19 +1688,19 @@
         <v>332541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301997</v>
+        <v>301825</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365356</v>
+        <v>362855</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2752906495022611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2500047418118205</v>
+        <v>0.2498626021037853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3024557172642812</v>
+        <v>0.3003855733093969</v>
       </c>
     </row>
     <row r="18">
@@ -1717,19 +1717,19 @@
         <v>251576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>228021</v>
+        <v>225540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>277769</v>
+        <v>277952</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4030918514135984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3653495602155011</v>
+        <v>0.3613750644120925</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.445059242320144</v>
+        <v>0.4453528552449887</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>235</v>
@@ -1738,19 +1738,19 @@
         <v>242997</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>219403</v>
+        <v>219909</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>264696</v>
+        <v>266835</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4161984611194317</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3757871101537897</v>
+        <v>0.3766545094158533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4533634818685822</v>
+        <v>0.4570271718076586</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>484</v>
@@ -1759,19 +1759,19 @@
         <v>494573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>461081</v>
+        <v>463921</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>526540</v>
+        <v>532603</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.409426706539004</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3817008162468241</v>
+        <v>0.3840520919156006</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4358899339949549</v>
+        <v>0.4409091775758209</v>
       </c>
     </row>
     <row r="19">
@@ -1788,19 +1788,19 @@
         <v>105022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87632</v>
+        <v>87970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122856</v>
+        <v>123639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1682731891433551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1404097559662916</v>
+        <v>0.1409514535042397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1968483017157228</v>
+        <v>0.1981026564247126</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -1809,19 +1809,19 @@
         <v>123550</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106193</v>
+        <v>104330</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145186</v>
+        <v>145910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2116137639336144</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1818848750904533</v>
+        <v>0.178693404364284</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2486697082399507</v>
+        <v>0.2499097385705983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>224</v>
@@ -1830,19 +1830,19 @@
         <v>228572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200042</v>
+        <v>202536</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255976</v>
+        <v>258470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1892211130161399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1656022846557755</v>
+        <v>0.1676667091083317</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2119065357066126</v>
+        <v>0.2139713142984049</v>
       </c>
     </row>
     <row r="20">
@@ -1859,19 +1859,19 @@
         <v>8978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3839</v>
+        <v>3805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16637</v>
+        <v>18062</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01438545218470833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00615189475510014</v>
+        <v>0.006097418745044643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02665745031694676</v>
+        <v>0.02894066442124202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1880,19 +1880,19 @@
         <v>18001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11433</v>
+        <v>11305</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27403</v>
+        <v>27362</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03083235177675403</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0195828703137504</v>
+        <v>0.01936242359392188</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04693533351710739</v>
+        <v>0.04686445701903737</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -1901,19 +1901,19 @@
         <v>26980</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18123</v>
+        <v>18151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39025</v>
+        <v>39215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02233477916675243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01500320956528928</v>
+        <v>0.01502609813050356</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03230619767338502</v>
+        <v>0.03246356309397835</v>
       </c>
     </row>
     <row r="21">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9348</v>
+        <v>10208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003125002624073368</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01580750746830983</v>
+        <v>0.01726110422660696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5566</v>
+        <v>6337</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002103540156158636</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01104679932560675</v>
+        <v>0.0125765483206813</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11344</v>
+        <v>10732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002655074962377281</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01035757962673683</v>
+        <v>0.009798666687089496</v>
       </c>
     </row>
     <row r="23">
@@ -2076,19 +2076,19 @@
         <v>20732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13156</v>
+        <v>13147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30359</v>
+        <v>31543</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03505694935731281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02224620010247548</v>
+        <v>0.02223086826462053</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05133564767379193</v>
+        <v>0.05333736805624185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2097,19 +2097,19 @@
         <v>12026</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6340</v>
+        <v>6391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20656</v>
+        <v>20295</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02386724915637182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01258244189593299</v>
+        <v>0.01268329070748619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04099419174438964</v>
+        <v>0.04027732509589559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2118,19 +2118,19 @@
         <v>32758</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22339</v>
+        <v>22150</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44870</v>
+        <v>46283</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02990908556820745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0203960275621542</v>
+        <v>0.02022350163843527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04096689442431945</v>
+        <v>0.04225763744267655</v>
       </c>
     </row>
     <row r="24">
@@ -2147,19 +2147,19 @@
         <v>37278</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26084</v>
+        <v>26672</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50494</v>
+        <v>50764</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06303594834906638</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04410762179917956</v>
+        <v>0.04510125344738496</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08538331214452913</v>
+        <v>0.08583909394926144</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -2168,19 +2168,19 @@
         <v>39831</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28970</v>
+        <v>28691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54006</v>
+        <v>53914</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07904807978104769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05749364270070988</v>
+        <v>0.05693950388843601</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1071806181579312</v>
+        <v>0.1069976137871105</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -2189,19 +2189,19 @@
         <v>77109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61628</v>
+        <v>60927</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>95459</v>
+        <v>94547</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07040238981799515</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05626802206345854</v>
+        <v>0.05562763284312115</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08715585863276556</v>
+        <v>0.08632371511090339</v>
       </c>
     </row>
     <row r="25">
@@ -2218,19 +2218,19 @@
         <v>145615</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>120522</v>
+        <v>124444</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166963</v>
+        <v>168234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2462277475094251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2037963153427317</v>
+        <v>0.2104280037242976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2823260128381101</v>
+        <v>0.2844750620321723</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2239,19 +2239,19 @@
         <v>125613</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>107838</v>
+        <v>106973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146152</v>
+        <v>144588</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2492910160482806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2140154828827502</v>
+        <v>0.2122981699302699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2900536638213684</v>
+        <v>0.2869496264190557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -2260,19 +2260,19 @@
         <v>271228</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>243509</v>
+        <v>242985</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>299717</v>
+        <v>299554</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2476370157565005</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2223293472207843</v>
+        <v>0.2218510897580549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2736483249076011</v>
+        <v>0.2734996163507796</v>
       </c>
     </row>
     <row r="26">
@@ -2289,19 +2289,19 @@
         <v>203257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>180636</v>
+        <v>181120</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>226692</v>
+        <v>227824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3436979266176449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3054462692403787</v>
+        <v>0.3062651744743055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3833254781238684</v>
+        <v>0.3852390100301026</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -2310,19 +2310,19 @@
         <v>143751</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>126674</v>
+        <v>123984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>164318</v>
+        <v>165388</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2852881004376736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.251397813895067</v>
+        <v>0.2460589735689131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3261045011403405</v>
+        <v>0.3282282796181859</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>340</v>
@@ -2331,19 +2331,19 @@
         <v>347008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317907</v>
+        <v>313807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>378865</v>
+        <v>376221</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3168262657402135</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2902564909248846</v>
+        <v>0.2865131090634599</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3459122399764529</v>
+        <v>0.3434983556861204</v>
       </c>
     </row>
     <row r="27">
@@ -2360,19 +2360,19 @@
         <v>148437</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>127490</v>
+        <v>129525</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>170408</v>
+        <v>171646</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2510003579196917</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2155792337409358</v>
+        <v>0.2190198289195583</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2881519729867799</v>
+        <v>0.2902458814624442</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>140</v>
@@ -2381,19 +2381,19 @@
         <v>142287</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>122784</v>
+        <v>121727</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>163468</v>
+        <v>164339</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2823834986152262</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2436772860986907</v>
+        <v>0.2415803069694709</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3244175210119515</v>
+        <v>0.3261461502769231</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>286</v>
@@ -2402,19 +2402,19 @@
         <v>290725</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>262426</v>
+        <v>263222</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>321679</v>
+        <v>321361</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2654382901854153</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2396005813193346</v>
+        <v>0.2403278250030112</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2937003962736642</v>
+        <v>0.2934100943919377</v>
       </c>
     </row>
     <row r="28">
@@ -2431,19 +2431,19 @@
         <v>29231</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20390</v>
+        <v>20055</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40370</v>
+        <v>41074</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.049428725007192</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0344783050670318</v>
+        <v>0.03391179974042693</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06826414080052789</v>
+        <v>0.06945414535343354</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -2452,19 +2452,19 @@
         <v>33479</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23277</v>
+        <v>23104</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46417</v>
+        <v>46637</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06644252437791391</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04619609112481152</v>
+        <v>0.04585275778297191</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09211901270577685</v>
+        <v>0.09255483427438219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -2473,19 +2473,19 @@
         <v>62710</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49059</v>
+        <v>48769</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78286</v>
+        <v>80056</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05725598758999806</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04479193562944634</v>
+        <v>0.04452680488971503</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07147689185754519</v>
+        <v>0.07309275092550069</v>
       </c>
     </row>
     <row r="29">
@@ -2502,19 +2502,19 @@
         <v>4984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1851</v>
+        <v>1115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12776</v>
+        <v>12450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008427342615593848</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003129298556176345</v>
+        <v>0.001885735053905286</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02160399021520364</v>
+        <v>0.02105178025380322</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2523,19 +2523,19 @@
         <v>5833</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2055</v>
+        <v>2009</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12756</v>
+        <v>13200</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01157599142732762</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004078209497956271</v>
+        <v>0.00398763042140352</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02531627445427142</v>
+        <v>0.02619672305690664</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2544,19 +2544,19 @@
         <v>10817</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5907</v>
+        <v>5190</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20903</v>
+        <v>20831</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009875890379292722</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005393255750673591</v>
+        <v>0.004738404704669704</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01908468047484634</v>
+        <v>0.01901886103734033</v>
       </c>
     </row>
     <row r="30">
@@ -2648,19 +2648,19 @@
         <v>3592</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10356</v>
+        <v>10343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01551199204277584</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003927717873115113</v>
+        <v>0.003955083958400082</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04472493867353652</v>
+        <v>0.04467046787004841</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2669,19 +2669,19 @@
         <v>4164</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9965</v>
+        <v>10409</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02605476053288297</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006419000035472077</v>
+        <v>0.00644272937428241</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06234750790481359</v>
+        <v>0.0651271006691069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2690,19 +2690,19 @@
         <v>7756</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3193</v>
+        <v>3623</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15269</v>
+        <v>16337</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01981744938577223</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008157883887398134</v>
+        <v>0.009257567517425846</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03901193437034643</v>
+        <v>0.04174108410546123</v>
       </c>
     </row>
     <row r="32">
@@ -2719,19 +2719,19 @@
         <v>34605</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25559</v>
+        <v>24456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47213</v>
+        <v>47854</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1494499828666706</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1103835182570643</v>
+        <v>0.1056182838401646</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2039017331374161</v>
+        <v>0.2066684642585022</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2740,19 +2740,19 @@
         <v>15197</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8480</v>
+        <v>8998</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25198</v>
+        <v>24916</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09508155029813269</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05305470470634747</v>
+        <v>0.05629621781928942</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1576539473883421</v>
+        <v>0.1558861762330883</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -2761,19 +2761,19 @@
         <v>49802</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37941</v>
+        <v>37253</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>64072</v>
+        <v>65345</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1272469943965105</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09694198927212302</v>
+        <v>0.09518325023630209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1637055364401293</v>
+        <v>0.1669581175503375</v>
       </c>
     </row>
     <row r="33">
@@ -2790,19 +2790,19 @@
         <v>37699</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>27178</v>
+        <v>27410</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>49619</v>
+        <v>49709</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1628116717523352</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1173756690390311</v>
+        <v>0.1183777619386838</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2142922134505318</v>
+        <v>0.2146813618690499</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -2811,19 +2811,19 @@
         <v>27010</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>18916</v>
+        <v>18363</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>38034</v>
+        <v>38036</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1689872723975684</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1183480083264165</v>
+        <v>0.1148890602356681</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2379633099151296</v>
+        <v>0.2379728459813951</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>64</v>
@@ -2832,19 +2832,19 @@
         <v>64709</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>51041</v>
+        <v>51750</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>79742</v>
+        <v>80662</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1653336644500201</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.130412260504805</v>
+        <v>0.1322229880847872</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2037449754494398</v>
+        <v>0.2060949788816346</v>
       </c>
     </row>
     <row r="34">
@@ -2861,19 +2861,19 @@
         <v>57246</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44777</v>
+        <v>45013</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>70753</v>
+        <v>72841</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2472289837882823</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1933782196257995</v>
+        <v>0.1943973768657488</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3055620460159054</v>
+        <v>0.3145784424164895</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -2882,19 +2882,19 @@
         <v>43668</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>32481</v>
+        <v>32532</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54955</v>
+        <v>55703</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2732097570712989</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2032189608046647</v>
+        <v>0.2035405065067408</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3438266372395824</v>
+        <v>0.3485072763255911</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>96</v>
@@ -2903,19 +2903,19 @@
         <v>100914</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>84542</v>
+        <v>84038</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>119894</v>
+        <v>119676</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2578390157939222</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2160089463660229</v>
+        <v>0.2147194523394062</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3063350950358283</v>
+        <v>0.3057777507588203</v>
       </c>
     </row>
     <row r="35">
@@ -2932,19 +2932,19 @@
         <v>57931</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45775</v>
+        <v>45933</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73280</v>
+        <v>72355</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2501872925230181</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1976885112354673</v>
+        <v>0.198369808222381</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3164755785093944</v>
+        <v>0.312479136762975</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -2953,19 +2953,19 @@
         <v>31326</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>21903</v>
+        <v>22212</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41749</v>
+        <v>42032</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1959896870875512</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1370364614858094</v>
+        <v>0.1389702905220486</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2612041902510233</v>
+        <v>0.2629715656460242</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>85</v>
@@ -2974,19 +2974,19 @@
         <v>89256</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>72739</v>
+        <v>74199</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>106845</v>
+        <v>107042</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.228054066462528</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1858521599571231</v>
+        <v>0.1895816939849197</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2729935099506161</v>
+        <v>0.2734962316152637</v>
       </c>
     </row>
     <row r="36">
@@ -3003,19 +3003,19 @@
         <v>22749</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14625</v>
+        <v>15203</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32459</v>
+        <v>33344</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09824494775931986</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06315960698376374</v>
+        <v>0.06565934188802294</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1401813895436128</v>
+        <v>0.1440021664371121</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -3024,19 +3024,19 @@
         <v>28529</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19794</v>
+        <v>19821</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>39057</v>
+        <v>38502</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1784948652027694</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1238448177067928</v>
+        <v>0.1240129809968538</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2443615678706605</v>
+        <v>0.2408886857737059</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>51</v>
@@ -3045,19 +3045,19 @@
         <v>51278</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>40412</v>
+        <v>38830</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66877</v>
+        <v>65970</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1310174208204488</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1032544163871184</v>
+        <v>0.09921137055713938</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1708738745589007</v>
+        <v>0.1685555653275113</v>
       </c>
     </row>
     <row r="37">
@@ -3074,19 +3074,19 @@
         <v>13348</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7340</v>
+        <v>7394</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21238</v>
+        <v>21870</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05764484279268047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03169819789988853</v>
+        <v>0.0319340726188225</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09172091697938306</v>
+        <v>0.09445162406898751</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -3095,19 +3095,19 @@
         <v>7937</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3727</v>
+        <v>3731</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15085</v>
+        <v>15693</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04965629714059623</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02331971831968191</v>
+        <v>0.02334334519341871</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09437738276557051</v>
+        <v>0.0981840298782</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -3116,19 +3116,19 @@
         <v>21284</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13794</v>
+        <v>13576</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31992</v>
+        <v>31258</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05438247934707298</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03524313743766085</v>
+        <v>0.03468708868961227</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08174116850286993</v>
+        <v>0.07986514509256452</v>
       </c>
     </row>
     <row r="38">
@@ -3145,19 +3145,19 @@
         <v>4381</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1013</v>
+        <v>1526</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10716</v>
+        <v>11114</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01892028647491759</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004373788990028088</v>
+        <v>0.006589689746653651</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04627881454010953</v>
+        <v>0.04799625069236355</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6612</v>
+        <v>6978</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01252581026920022</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04136666248197996</v>
+        <v>0.04365632942602983</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -3187,19 +3187,19 @@
         <v>6383</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2401</v>
+        <v>2082</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12826</v>
+        <v>12501</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01630890934372519</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006134443402273551</v>
+        <v>0.005319801340551314</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03277083100729833</v>
+        <v>0.03194063994277541</v>
       </c>
     </row>
     <row r="39">
@@ -3291,19 +3291,19 @@
         <v>6322</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1836</v>
+        <v>2236</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14529</v>
+        <v>14705</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003472874732866284</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001008594093445277</v>
+        <v>0.001228088908066962</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007981449562760022</v>
+        <v>0.008077979477864147</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3312,19 +3312,19 @@
         <v>6162</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13122</v>
+        <v>14050</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003524488868379621</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001237098944804467</v>
+        <v>0.001262107854605807</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007505862770569133</v>
+        <v>0.008037035503339488</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -3333,19 +3333,19 @@
         <v>12483</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6854</v>
+        <v>6620</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21690</v>
+        <v>22316</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00349816023353594</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001920674389329223</v>
+        <v>0.00185503558575217</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006078218698532369</v>
+        <v>0.006253487785533991</v>
       </c>
     </row>
     <row r="41">
@@ -3362,19 +3362,19 @@
         <v>62762</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>48744</v>
+        <v>49554</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>79535</v>
+        <v>84704</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03447834764464548</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02677719199759826</v>
+        <v>0.02722266420836587</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04369230446921767</v>
+        <v>0.04653216035981242</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>29</v>
@@ -3383,19 +3383,19 @@
         <v>31360</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>21299</v>
+        <v>20576</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43958</v>
+        <v>43882</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01793824265030771</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0121833687088049</v>
+        <v>0.01176957815974468</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02514437388587356</v>
+        <v>0.02510106322232173</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>89</v>
@@ -3404,19 +3404,19 @@
         <v>94122</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>76636</v>
+        <v>77101</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>114895</v>
+        <v>117271</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02637543491054701</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02147533491537744</v>
+        <v>0.02160569049158263</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03219661142841628</v>
+        <v>0.03286233368442847</v>
       </c>
     </row>
     <row r="42">
@@ -3433,19 +3433,19 @@
         <v>86110</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>69631</v>
+        <v>69335</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>105264</v>
+        <v>105041</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04730443009127898</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03825153418086261</v>
+        <v>0.03808884958314415</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05782648101077659</v>
+        <v>0.05770397752458164</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>78</v>
@@ -3454,19 +3454,19 @@
         <v>81523</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>64779</v>
+        <v>65068</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>99715</v>
+        <v>101848</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04663207704417641</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03705450211031268</v>
+        <v>0.03721953309891168</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05703792220395398</v>
+        <v>0.05825797931779004</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>163</v>
@@ -3475,19 +3475,19 @@
         <v>167633</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>143530</v>
+        <v>143634</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>196117</v>
+        <v>193764</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04697504777665387</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04022087369963306</v>
+        <v>0.04024990569533514</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05495701839720271</v>
+        <v>0.05429762550314638</v>
       </c>
     </row>
     <row r="43">
@@ -3504,19 +3504,19 @@
         <v>261937</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>232509</v>
+        <v>231716</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>293682</v>
+        <v>293403</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1438947224393233</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1277287512916811</v>
+        <v>0.1272931159384699</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1613335719417985</v>
+        <v>0.1611806349924717</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>220</v>
@@ -3525,19 +3525,19 @@
         <v>224287</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>198861</v>
+        <v>197005</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>254147</v>
+        <v>254099</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1282949107179229</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1137505727511799</v>
+        <v>0.1126891817222772</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1453751340465502</v>
+        <v>0.1453475652184655</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>471</v>
@@ -3546,19 +3546,19 @@
         <v>486224</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>444652</v>
+        <v>443567</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>527417</v>
+        <v>530763</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1362524545643523</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.124602791127792</v>
+        <v>0.1242988655619395</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1477956680641457</v>
+        <v>0.1487334280575772</v>
       </c>
     </row>
     <row r="44">
@@ -3575,19 +3575,19 @@
         <v>503250</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>463733</v>
+        <v>457990</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>542620</v>
+        <v>540922</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2764595218462353</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2547509607736559</v>
+        <v>0.2515961359029191</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2980872614783553</v>
+        <v>0.2971547553797387</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>369</v>
@@ -3596,19 +3596,19 @@
         <v>375882</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>339161</v>
+        <v>342062</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>409201</v>
+        <v>413597</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2150088922225435</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.194003974758833</v>
+        <v>0.195663594148731</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.234067546901843</v>
+        <v>0.2365821381714778</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>855</v>
@@ -3617,19 +3617,19 @@
         <v>879132</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>828530</v>
+        <v>828968</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>929411</v>
+        <v>930762</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2463551730850492</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2321753119763607</v>
+        <v>0.2322980446816485</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2604446250209851</v>
+        <v>0.2608233834050738</v>
       </c>
     </row>
     <row r="45">
@@ -3646,19 +3646,19 @@
         <v>550561</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>513319</v>
+        <v>511715</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>590386</v>
+        <v>590642</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3024496768820074</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2819910663981253</v>
+        <v>0.2811099765807052</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3243275645912085</v>
+        <v>0.3244680451078403</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>555</v>
@@ -3667,19 +3667,19 @@
         <v>571680</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>532961</v>
+        <v>534621</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>609640</v>
+        <v>612620</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3270074012472507</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3048599795861867</v>
+        <v>0.305809621710602</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3487212088291725</v>
+        <v>0.3504258098221991</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1094</v>
@@ -3688,19 +3688,19 @@
         <v>1122240</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1069491</v>
+        <v>1069295</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1175094</v>
+        <v>1179392</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3144803802873202</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2996986730762605</v>
+        <v>0.2996438536922034</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3292914241161044</v>
+        <v>0.3304956831421504</v>
       </c>
     </row>
     <row r="46">
@@ -3717,19 +3717,19 @@
         <v>312445</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>281563</v>
+        <v>282995</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>348301</v>
+        <v>345047</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1716410453545444</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1546759900293857</v>
+        <v>0.1554626142665253</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1913388858733582</v>
+        <v>0.1895509415970107</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>353</v>
@@ -3738,19 +3738,19 @@
         <v>368425</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>337742</v>
+        <v>337156</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>404254</v>
+        <v>400384</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2107436545643206</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1931921667225637</v>
+        <v>0.1928573425220206</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2312378498338439</v>
+        <v>0.2290245657840011</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>667</v>
@@ -3759,19 +3759,19 @@
         <v>680870</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>635198</v>
+        <v>633677</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>733053</v>
+        <v>728081</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.190797213360179</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1779988231784606</v>
+        <v>0.1775725586101658</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2054201970377149</v>
+        <v>0.2040268424318871</v>
       </c>
     </row>
     <row r="47">
@@ -3788,19 +3788,19 @@
         <v>36952</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>25126</v>
+        <v>26093</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>50292</v>
+        <v>51977</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02029938100909888</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01380303178144843</v>
+        <v>0.01433411725536354</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02762798276706763</v>
+        <v>0.02855343764964363</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -3809,19 +3809,19 @@
         <v>88897</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>71713</v>
+        <v>72340</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>108370</v>
+        <v>108166</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05085033268509862</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04102082895168871</v>
+        <v>0.04137924461684114</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06198889503364979</v>
+        <v>0.06187207933729564</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>120</v>
@@ -3830,19 +3830,19 @@
         <v>125849</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>105568</v>
+        <v>104257</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>148271</v>
+        <v>148557</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03526613578236244</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02958272201687332</v>
+        <v>0.0292154938117323</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0415493768315723</v>
+        <v>0.04162951372056871</v>
       </c>
     </row>
     <row r="48">
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5364</v>
+        <v>5065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002010883120235629</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006650295061323913</v>
+        <v>0.006278764246633988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8854</v>
+        <v>6980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00224148871096153</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009970153503509068</v>
+        <v>0.007860525001320602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4216,19 +4216,19 @@
         <v>3613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>894</v>
+        <v>979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8969</v>
+        <v>8600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002131721708839927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0005274728229569141</v>
+        <v>0.0005778688064936645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005292634333309476</v>
+        <v>0.00507499403917544</v>
       </c>
     </row>
     <row r="5">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4913</v>
+        <v>4947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001223772341800003</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006090843655988022</v>
+        <v>0.006133230674446681</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4952</v>
+        <v>4967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0005825089531258802</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.002921915541550867</v>
+        <v>0.002930700177522544</v>
       </c>
     </row>
     <row r="6">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6483</v>
+        <v>6489</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002303281019797609</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.008036441442361771</v>
+        <v>0.008044341156930096</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7635</v>
+        <v>9599</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002486425802088015</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008597939954673258</v>
+        <v>0.01080964723063769</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4350,19 +4350,19 @@
         <v>4066</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9455</v>
+        <v>9660</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002399249885654461</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0005767579304153572</v>
+        <v>0.0005836458506156813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005579193602940498</v>
+        <v>0.005700230890795061</v>
       </c>
     </row>
     <row r="7">
@@ -4379,19 +4379,19 @@
         <v>19238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11181</v>
+        <v>11446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30320</v>
+        <v>30867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02384954824728813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01386136334210791</v>
+        <v>0.01418925737107712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03758727330058272</v>
+        <v>0.03826600231962501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4400,19 +4400,19 @@
         <v>14250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8029</v>
+        <v>7879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22630</v>
+        <v>22643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0160472850517207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009041900029168722</v>
+        <v>0.008873143101326855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0254834001562474</v>
+        <v>0.02549810530668474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -4421,19 +4421,19 @@
         <v>33488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23561</v>
+        <v>23136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46401</v>
+        <v>47511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01976111973389505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01390337011514636</v>
+        <v>0.01365230613505941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02738084848506825</v>
+        <v>0.02803584077258496</v>
       </c>
     </row>
     <row r="8">
@@ -4450,19 +4450,19 @@
         <v>59554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44656</v>
+        <v>45795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74769</v>
+        <v>76732</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07382854017963339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05536006585761687</v>
+        <v>0.05677147099330199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.092690909150177</v>
+        <v>0.09512393520053875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -4471,19 +4471,19 @@
         <v>63119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49328</v>
+        <v>48412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80479</v>
+        <v>80293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07107873201915293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05554843351980268</v>
+        <v>0.05451787427939524</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09062805233581153</v>
+        <v>0.09041845493951452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -4492,19 +4492,19 @@
         <v>122672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100381</v>
+        <v>102790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146616</v>
+        <v>150589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07238762569009705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05923378037215446</v>
+        <v>0.06065506953398526</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08651664862204718</v>
+        <v>0.088860741609327</v>
       </c>
     </row>
     <row r="9">
@@ -4521,19 +4521,19 @@
         <v>261589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>234465</v>
+        <v>237192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>287875</v>
+        <v>292047</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.324290759423817</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2906651395289993</v>
+        <v>0.2940465772542558</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3568776257558956</v>
+        <v>0.3620500467662509</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>262</v>
@@ -4542,19 +4542,19 @@
         <v>283542</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>258026</v>
+        <v>256066</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>311549</v>
+        <v>313168</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.319300030606366</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2905664425748255</v>
+        <v>0.2883584799119212</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3508396559142269</v>
+        <v>0.3526622548666902</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>510</v>
@@ -4563,19 +4563,19 @@
         <v>545131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>505398</v>
+        <v>507829</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>584763</v>
+        <v>587272</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3216755902750152</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2982300007773386</v>
+        <v>0.2996640136818992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3450619769910507</v>
+        <v>0.3465425411621938</v>
       </c>
     </row>
     <row r="10">
@@ -4592,19 +4592,19 @@
         <v>358347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>328032</v>
+        <v>329007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>385836</v>
+        <v>390454</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4442409349403744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4066602900940273</v>
+        <v>0.4078682880834232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4783199584892991</v>
+        <v>0.484043921311417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>387</v>
@@ -4613,19 +4613,19 @@
         <v>415815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>386466</v>
+        <v>386028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>444686</v>
+        <v>445960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4682541954010159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4352040587624342</v>
+        <v>0.4347106189643407</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5007660118747893</v>
+        <v>0.5022013494582647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>726</v>
@@ -4634,19 +4634,19 @@
         <v>774161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>735365</v>
+        <v>731317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>819621</v>
+        <v>815912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4568240145297167</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4339306206080989</v>
+        <v>0.4315420679446744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.483648970820341</v>
+        <v>0.4814603810494003</v>
       </c>
     </row>
     <row r="11">
@@ -4663,19 +4663,19 @@
         <v>103455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84517</v>
+        <v>85125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123666</v>
+        <v>123020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1282522807270539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1047748553965156</v>
+        <v>0.1055297366343254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1533082979493072</v>
+        <v>0.1525080333214186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -4684,19 +4684,19 @@
         <v>107087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88390</v>
+        <v>88571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127577</v>
+        <v>127609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1205918424086949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0995371848936196</v>
+        <v>0.09974074478242556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1436657927166596</v>
+        <v>0.1437021900335964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -4705,19 +4705,19 @@
         <v>210541</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184413</v>
+        <v>183964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241180</v>
+        <v>240167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1242381692236557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1088202036230633</v>
+        <v>0.1085550887561695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1423174415547224</v>
+        <v>0.14171966714617</v>
       </c>
     </row>
     <row r="12">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5301</v>
+        <v>6159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002365042739255061</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007188612138881259</v>
+        <v>0.008352789286579674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7586</v>
+        <v>6809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002274305395984327</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008839663817229832</v>
+        <v>0.007934003334283242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4898,19 +4898,19 @@
         <v>3696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9305</v>
+        <v>8709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002316241308637423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006010093922281268</v>
+        <v>0.0005947660013160321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005831744383654231</v>
+        <v>0.005458234573452239</v>
       </c>
     </row>
     <row r="15">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6980</v>
+        <v>7212</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002735078001985293</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009465532312600423</v>
+        <v>0.009779484269323293</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -4948,19 +4948,19 @@
         <v>11977</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6723</v>
+        <v>6095</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20447</v>
+        <v>20440</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01395689084741771</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.007834262749081996</v>
+        <v>0.007102559337831368</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02382660460705882</v>
+        <v>0.02381831061430748</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -4969,19 +4969,19 @@
         <v>13994</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7989</v>
+        <v>7834</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22927</v>
+        <v>22428</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008770526046198828</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005006755658155993</v>
+        <v>0.004909964149347934</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01436921052179845</v>
+        <v>0.01405666624147714</v>
       </c>
     </row>
     <row r="16">
@@ -4998,19 +4998,19 @@
         <v>44664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32189</v>
+        <v>32477</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59295</v>
+        <v>59262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06056847645657816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04365038342551755</v>
+        <v>0.04404132633813893</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08040911838779931</v>
+        <v>0.08036469726755059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -5019,19 +5019,19 @@
         <v>43395</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30644</v>
+        <v>29818</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61463</v>
+        <v>59963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05056882367447285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03570924643072542</v>
+        <v>0.03474684179575772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07162326846734204</v>
+        <v>0.06987508043890533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -5040,19 +5040,19 @@
         <v>88060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68791</v>
+        <v>71191</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109279</v>
+        <v>112092</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05519034498549976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04311381083835166</v>
+        <v>0.04461818685042558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06848924193790185</v>
+        <v>0.07025271360179186</v>
       </c>
     </row>
     <row r="17">
@@ -5069,19 +5069,19 @@
         <v>109535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91846</v>
+        <v>91854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130031</v>
+        <v>129363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1485387667968701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1245516324891518</v>
+        <v>0.1245620566840819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1763325279915832</v>
+        <v>0.1754266429384274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -5090,19 +5090,19 @@
         <v>148273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126140</v>
+        <v>127367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173886</v>
+        <v>171526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1727831140795951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.146992390546153</v>
+        <v>0.1484218152462241</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2026309757465742</v>
+        <v>0.1998809496193072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -5111,19 +5111,19 @@
         <v>257808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229071</v>
+        <v>230541</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>289461</v>
+        <v>288467</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1615781482592258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1435677051095242</v>
+        <v>0.144488917252501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1814168633981447</v>
+        <v>0.1807935060721913</v>
       </c>
     </row>
     <row r="18">
@@ -5140,19 +5140,19 @@
         <v>366851</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>339647</v>
+        <v>339171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>395481</v>
+        <v>396215</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.497481731515892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4605902716803022</v>
+        <v>0.459944466897441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5363052358994498</v>
+        <v>0.5373017982566536</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>340</v>
@@ -5161,19 +5161,19 @@
         <v>363145</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>331279</v>
+        <v>333615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>392083</v>
+        <v>396502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4231751040673927</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3860420511235598</v>
+        <v>0.3887642015756652</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.456896529773592</v>
+        <v>0.4620463043594669</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>688</v>
@@ -5182,19 +5182,19 @@
         <v>729996</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>692169</v>
+        <v>690435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>770644</v>
+        <v>773748</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.457517262718973</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4338093955641522</v>
+        <v>0.4327227876407528</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4829925174294727</v>
+        <v>0.4849380982024245</v>
       </c>
     </row>
     <row r="19">
@@ -5211,19 +5211,19 @@
         <v>197648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173900</v>
+        <v>171353</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>222451</v>
+        <v>223052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2680279974026964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2358232356307085</v>
+        <v>0.2323695033388805</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3016623916654211</v>
+        <v>0.3024771047509137</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>254</v>
@@ -5232,19 +5232,19 @@
         <v>268067</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>243051</v>
+        <v>242338</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>296870</v>
+        <v>297139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3123808006744051</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2832293181937594</v>
+        <v>0.2823979823720801</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3459450439276567</v>
+        <v>0.3462583768104329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>434</v>
@@ -5253,19 +5253,19 @@
         <v>465716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>428207</v>
+        <v>423307</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>502777</v>
+        <v>504604</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.291882346378992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2683740570129517</v>
+        <v>0.2653027969024267</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3151103220626736</v>
+        <v>0.3162548914158795</v>
       </c>
     </row>
     <row r="20">
@@ -5282,19 +5282,19 @@
         <v>14957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8291</v>
+        <v>8680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25335</v>
+        <v>25156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02028290708672293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01124337959979511</v>
+        <v>0.01177025073727498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03435681628843525</v>
+        <v>0.03411426062152946</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -5303,19 +5303,19 @@
         <v>21334</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13591</v>
+        <v>12840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33813</v>
+        <v>33325</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02486096126073222</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01583790348433672</v>
+        <v>0.01496200233555765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0394022495548812</v>
+        <v>0.03883390046075733</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -5324,19 +5324,19 @@
         <v>36291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24112</v>
+        <v>24587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49626</v>
+        <v>50621</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02274513030247317</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01511180882284057</v>
+        <v>0.01540983199903075</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03110280369074207</v>
+        <v>0.03172618384503867</v>
       </c>
     </row>
     <row r="21">
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3922</v>
+        <v>5548</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001421337582895214</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005769740614017984</v>
+        <v>0.008162138894591699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4855</v>
+        <v>5828</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007031348001500076</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003533663576850705</v>
+        <v>0.004241984280440718</v>
       </c>
     </row>
     <row r="23">
@@ -5491,19 +5491,19 @@
         <v>17380</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10625</v>
+        <v>9506</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29203</v>
+        <v>26687</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02557149452529888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01563263857242755</v>
+        <v>0.01398647279705128</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04296672838507292</v>
+        <v>0.03926476646192175</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -5512,19 +5512,19 @@
         <v>6056</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2076</v>
+        <v>2042</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13011</v>
+        <v>12599</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008722654724954601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002989800075964278</v>
+        <v>0.002940784390379785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01874166838366473</v>
+        <v>0.01814832240751978</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -5533,19 +5533,19 @@
         <v>23436</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14833</v>
+        <v>14236</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35252</v>
+        <v>35783</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01705776508040065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01079603277415003</v>
+        <v>0.01036171892737234</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.025658336746448</v>
+        <v>0.02604435079254623</v>
       </c>
     </row>
     <row r="24">
@@ -5562,19 +5562,19 @@
         <v>41286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29656</v>
+        <v>30320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53991</v>
+        <v>55150</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06074317368084473</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04363319555018345</v>
+        <v>0.04460909881793018</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07943627089270974</v>
+        <v>0.08114167382444022</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -5583,19 +5583,19 @@
         <v>31851</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21726</v>
+        <v>21016</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44576</v>
+        <v>45132</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04587894670724376</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03129407843662239</v>
+        <v>0.03027147029628638</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06420904977787398</v>
+        <v>0.06500867852368418</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>67</v>
@@ -5604,19 +5604,19 @@
         <v>73137</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57217</v>
+        <v>56740</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92740</v>
+        <v>92307</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05323227035691312</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0416454579785211</v>
+        <v>0.04129807268535131</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06750087057198743</v>
+        <v>0.06718521465838492</v>
       </c>
     </row>
     <row r="25">
@@ -5633,19 +5633,19 @@
         <v>105223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87980</v>
+        <v>87976</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126605</v>
+        <v>126108</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1548139390699865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1294437488797776</v>
+        <v>0.1294385535702484</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1862736904616659</v>
+        <v>0.1855424241749274</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -5654,19 +5654,19 @@
         <v>86845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71060</v>
+        <v>69606</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105964</v>
+        <v>105873</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1250936075353607</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1023565966156689</v>
+        <v>0.1002627927321643</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1526330504648752</v>
+        <v>0.1525021697902809</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -5675,19 +5675,19 @@
         <v>192068</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>166335</v>
+        <v>165267</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>219831</v>
+        <v>219846</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1397962366823532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1210664533880318</v>
+        <v>0.120288950408372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1600034147257995</v>
+        <v>0.1600143212029932</v>
       </c>
     </row>
     <row r="26">
@@ -5704,19 +5704,19 @@
         <v>199474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174149</v>
+        <v>172782</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224908</v>
+        <v>223609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2934851161152558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2562244902758919</v>
+        <v>0.2542134766642365</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3309052824815218</v>
+        <v>0.3289944910125612</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>166</v>
@@ -5725,19 +5725,19 @@
         <v>175267</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152951</v>
+        <v>151815</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>199000</v>
+        <v>198922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2524594827777756</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2203142527293359</v>
+        <v>0.2186779507891785</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2866447305848986</v>
+        <v>0.2865326836421935</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>344</v>
@@ -5746,19 +5746,19 @@
         <v>374741</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>338600</v>
+        <v>341729</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>409966</v>
+        <v>407187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2727548375512821</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2464496183814261</v>
+        <v>0.2487265382101894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2983932353040123</v>
+        <v>0.2963700359423984</v>
       </c>
     </row>
     <row r="27">
@@ -5775,19 +5775,19 @@
         <v>256814</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>231339</v>
+        <v>232648</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>282139</v>
+        <v>282842</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3778491847014906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3403675214300361</v>
+        <v>0.3422937344812826</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.415108997775524</v>
+        <v>0.4161439342857357</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>257</v>
@@ -5796,19 +5796,19 @@
         <v>272750</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>248083</v>
+        <v>246519</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>301382</v>
+        <v>300271</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.392876564577276</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3573449546472058</v>
+        <v>0.3550919998005598</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4341188053163544</v>
+        <v>0.4325188772609087</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>500</v>
@@ -5817,19 +5817,19 @@
         <v>529565</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>490694</v>
+        <v>491918</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>566594</v>
+        <v>569211</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3854425292904475</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.357150733434911</v>
+        <v>0.3580417896121312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4123946478381552</v>
+        <v>0.4142988282293104</v>
       </c>
     </row>
     <row r="28">
@@ -5846,19 +5846,19 @@
         <v>53301</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40619</v>
+        <v>39687</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70261</v>
+        <v>68452</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07842195381657675</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05976178261698669</v>
+        <v>0.05839051825571116</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1033746834351675</v>
+        <v>0.1007126470846782</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -5867,19 +5867,19 @@
         <v>115178</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>95129</v>
+        <v>96341</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>136932</v>
+        <v>136214</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1659052761867951</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1370264881792409</v>
+        <v>0.1387714412126018</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1972405830742869</v>
+        <v>0.1962057028467348</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>156</v>
@@ -5888,19 +5888,19 @@
         <v>168479</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>145771</v>
+        <v>143660</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>195641</v>
+        <v>195224</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1226273321350075</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1060993976753664</v>
+        <v>0.1045625048396667</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1423966854761647</v>
+        <v>0.1420931521686731</v>
       </c>
     </row>
     <row r="29">
@@ -5917,19 +5917,19 @@
         <v>5229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1977</v>
+        <v>1922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12885</v>
+        <v>12241</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007693800507651496</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002909399406125114</v>
+        <v>0.002828054680588791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01895743587377822</v>
+        <v>0.01801008961601775</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5938,19 +5938,19 @@
         <v>6292</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2191</v>
+        <v>2287</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12727</v>
+        <v>13141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009063467490594274</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003155372291441666</v>
+        <v>0.003293875950556509</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01833276470651102</v>
+        <v>0.01892895001253072</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -5959,19 +5959,19 @@
         <v>11521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6018</v>
+        <v>6229</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19851</v>
+        <v>20844</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008385894103445942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00438029437822478</v>
+        <v>0.00453382922186567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01444876326134656</v>
+        <v>0.01517107808351825</v>
       </c>
     </row>
     <row r="30">
@@ -6063,19 +6063,19 @@
         <v>3479</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10160</v>
+        <v>9358</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009758790101393078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002841958690155199</v>
+        <v>0.002831054045003093</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02849911717397452</v>
+        <v>0.02624919842494002</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6957</v>
+        <v>6998</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006433226539252293</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02243129033633738</v>
+        <v>0.02256341345644947</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -6105,19 +6105,19 @@
         <v>5474</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11938</v>
+        <v>12389</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008211645508411089</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003031908620203981</v>
+        <v>0.003033693539129323</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01790710572220769</v>
+        <v>0.01858324351109334</v>
       </c>
     </row>
     <row r="32">
@@ -6134,19 +6134,19 @@
         <v>33500</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22145</v>
+        <v>21837</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50278</v>
+        <v>47282</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09396594172913141</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06211595700862257</v>
+        <v>0.06125100841694744</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1410298902048731</v>
+        <v>0.1326254997851871</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -6155,19 +6155,19 @@
         <v>21213</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13464</v>
+        <v>12989</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33993</v>
+        <v>32794</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06839536291260155</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04341100039938032</v>
+        <v>0.04188139294423805</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1096032274252802</v>
+        <v>0.1057380093913652</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>46</v>
@@ -6176,19 +6176,19 @@
         <v>54712</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39416</v>
+        <v>41110</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71792</v>
+        <v>72803</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08206979780760404</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05912532922305396</v>
+        <v>0.06166666407866656</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1076892378334611</v>
+        <v>0.1092064694745935</v>
       </c>
     </row>
     <row r="33">
@@ -6205,19 +6205,19 @@
         <v>44691</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>32034</v>
+        <v>32597</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>60046</v>
+        <v>60788</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1253578947912772</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08985436821401949</v>
+        <v>0.09143431648496747</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1684275117741872</v>
+        <v>0.1705096962842903</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>32</v>
@@ -6226,19 +6226,19 @@
         <v>35615</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>25369</v>
+        <v>25001</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>49722</v>
+        <v>49081</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1148320799204458</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.08179707751440776</v>
+        <v>0.0806099456937908</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1603169241397094</v>
+        <v>0.1582492028592753</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>72</v>
@@ -6247,19 +6247,19 @@
         <v>80306</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>63371</v>
+        <v>63650</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>100039</v>
+        <v>99712</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1204609931805159</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09505793898794124</v>
+        <v>0.09547658885292012</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1500608734992979</v>
+        <v>0.1495705966782731</v>
       </c>
     </row>
     <row r="34">
@@ -6276,19 +6276,19 @@
         <v>64983</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>52237</v>
+        <v>49750</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>82378</v>
+        <v>80977</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1822761959008952</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1465225619451925</v>
+        <v>0.1395464517709993</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2310672697464587</v>
+        <v>0.2271395651248119</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>51</v>
@@ -6297,19 +6297,19 @@
         <v>54100</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41248</v>
+        <v>41740</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>67555</v>
+        <v>68394</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1744346317068038</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1329962589969313</v>
+        <v>0.1345809276162469</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2178173485747467</v>
+        <v>0.2205222910037312</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>110</v>
@@ -6318,19 +6318,19 @@
         <v>119083</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>100457</v>
+        <v>99862</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>141379</v>
+        <v>141310</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1786280823054961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1506875236959074</v>
+        <v>0.1497948644136539</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2120723193750347</v>
+        <v>0.211968731254957</v>
       </c>
     </row>
     <row r="35">
@@ -6347,19 +6347,19 @@
         <v>91017</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>73833</v>
+        <v>73791</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>107875</v>
+        <v>108414</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.255300371284417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2071000669474188</v>
+        <v>0.2069834951317849</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3025860575124029</v>
+        <v>0.3040978867728346</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>65</v>
@@ -6368,19 +6368,19 @@
         <v>71862</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>57676</v>
+        <v>57914</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>87991</v>
+        <v>88818</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2317035267441072</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1859642923961303</v>
+        <v>0.1867311907710731</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2837088949618953</v>
+        <v>0.2863733598822253</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>148</v>
@@ -6389,19 +6389,19 @@
         <v>162879</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>139614</v>
+        <v>138760</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>189312</v>
+        <v>186883</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2443224634020984</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.209424777555777</v>
+        <v>0.2081439871057635</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2839731568536497</v>
+        <v>0.280328588086281</v>
       </c>
     </row>
     <row r="36">
@@ -6418,19 +6418,19 @@
         <v>96827</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>80269</v>
+        <v>81144</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114834</v>
+        <v>116061</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2715963842028625</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2251534613471554</v>
+        <v>0.2276071521229827</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3221056653648266</v>
+        <v>0.325548870560283</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>78</v>
@@ -6439,19 +6439,19 @@
         <v>86254</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>70520</v>
+        <v>71221</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>102068</v>
+        <v>105383</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2781072948859085</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2273750398645809</v>
+        <v>0.229634883073463</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3290942809056336</v>
+        <v>0.3397827933902183</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>167</v>
@@ -6460,19 +6460,19 @@
         <v>183081</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>161386</v>
+        <v>161588</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>209248</v>
+        <v>209376</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2746254408034763</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2420824151628428</v>
+        <v>0.2423865254627894</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3138762935819253</v>
+        <v>0.3140688076808856</v>
       </c>
     </row>
     <row r="37">
@@ -6489,19 +6489,19 @@
         <v>16399</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9658</v>
+        <v>9776</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25754</v>
+        <v>25697</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04599750896836708</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02708910756841538</v>
+        <v>0.02742254356506373</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07224058673498883</v>
+        <v>0.07208086207708218</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>32</v>
@@ -6510,19 +6510,19 @@
         <v>38120</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26235</v>
+        <v>26931</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>51848</v>
+        <v>51152</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1229087788476697</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0845900878082959</v>
+        <v>0.08683188702639354</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1671738529956455</v>
+        <v>0.1649291363788359</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -6531,19 +6531,19 @@
         <v>54518</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41056</v>
+        <v>41589</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71905</v>
+        <v>73409</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08177876922987341</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06158537983249706</v>
+        <v>0.06238413018838267</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1078596123087825</v>
+        <v>0.110115273043452</v>
       </c>
     </row>
     <row r="38">
@@ -6560,19 +6560,19 @@
         <v>5614</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2020</v>
+        <v>2069</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>12295</v>
+        <v>13218</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01574691302165658</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005666187258489386</v>
+        <v>0.005803237194635774</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03448710319416196</v>
+        <v>0.03707519220879228</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5389</v>
+        <v>5448</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003185098443211264</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01737429390612815</v>
+        <v>0.01756426757170238</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -6602,19 +6602,19 @@
         <v>6602</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2480</v>
+        <v>2289</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>13430</v>
+        <v>13675</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.009902807762524795</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003719777064332364</v>
+        <v>0.003434038311861502</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02014529091473049</v>
+        <v>0.02051278931731658</v>
       </c>
     </row>
     <row r="39">
@@ -6706,19 +6706,19 @@
         <v>6067</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2155</v>
+        <v>2450</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13017</v>
+        <v>12945</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002351409395412838</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0008353187300118961</v>
+        <v>0.0009497085638103286</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005045009050355729</v>
+        <v>0.005017106142704696</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -6727,19 +6727,19 @@
         <v>3986</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9942</v>
+        <v>9251</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001449065533662043</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0003629499509537638</v>
+        <v>0.0003623710602317628</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.003614722442239923</v>
+        <v>0.003363168603017864</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -6748,19 +6748,19 @@
         <v>10053</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4984</v>
+        <v>5025</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19260</v>
+        <v>18673</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001885824863102913</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0009349696182480283</v>
+        <v>0.0009426822624967758</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003613064028503591</v>
+        <v>0.003502811419630653</v>
       </c>
     </row>
     <row r="41">
@@ -6777,19 +6777,19 @@
         <v>53611</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>39355</v>
+        <v>39360</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>73014</v>
+        <v>72267</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0207775240336243</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01525259724135094</v>
+        <v>0.01525428042208414</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02829708789304976</v>
+        <v>0.02800777515363281</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>26</v>
@@ -6798,19 +6798,19 @@
         <v>29220</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19113</v>
+        <v>19163</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43745</v>
+        <v>43384</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01062333470638696</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006948637695550414</v>
+        <v>0.0069668348641635</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01590415659305214</v>
+        <v>0.01577304785641289</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>72</v>
@@ -6819,19 +6819,19 @@
         <v>82831</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>64703</v>
+        <v>63674</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>103810</v>
+        <v>103524</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01553824254758934</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01213764494007621</v>
+        <v>0.01194456869867687</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01947359795032873</v>
+        <v>0.01942005166510373</v>
       </c>
     </row>
     <row r="42">
@@ -6848,19 +6848,19 @@
         <v>89852</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>71804</v>
+        <v>71937</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>112224</v>
+        <v>111063</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03482285511956339</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0278281473526841</v>
+        <v>0.02787993029930677</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04349340960994363</v>
+        <v>0.04304342562547279</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>74</v>
@@ -6869,19 +6869,19 @@
         <v>81651</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>64479</v>
+        <v>63114</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>102109</v>
+        <v>100512</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02968536042537954</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02344227176579499</v>
+        <v>0.0229460968681042</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03712328601720286</v>
+        <v>0.0365424939444914</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>157</v>
@@ -6890,19 +6890,19 @@
         <v>171502</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>146792</v>
+        <v>146850</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>198948</v>
+        <v>202445</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03217204962752481</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02753668041195449</v>
+        <v>0.02754757617780884</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03732046750084903</v>
+        <v>0.03797662004482324</v>
       </c>
     </row>
     <row r="43">
@@ -6919,19 +6919,19 @@
         <v>234109</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>207982</v>
+        <v>204686</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>265409</v>
+        <v>267695</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09073100661782836</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08060548468129526</v>
+        <v>0.079327980685012</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1028617213988771</v>
+        <v>0.1037478658715096</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>181</v>
@@ -6940,19 +6940,19 @@
         <v>198591</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>173736</v>
+        <v>169516</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>228457</v>
+        <v>228334</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07220062474238197</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06316438019266346</v>
+        <v>0.06163010321725704</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08305893251069066</v>
+        <v>0.08301429805219514</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>401</v>
@@ -6961,19 +6961,19 @@
         <v>432699</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>391685</v>
+        <v>391129</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>475377</v>
+        <v>475295</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08116984091957186</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07347604280579015</v>
+        <v>0.07337172521205847</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08917564569756756</v>
+        <v>0.08916042655595477</v>
       </c>
     </row>
     <row r="44">
@@ -6990,19 +6990,19 @@
         <v>459580</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>419006</v>
+        <v>419471</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>500057</v>
+        <v>501946</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1781145353587014</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1623897237339564</v>
+        <v>0.1625699754057676</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1938017847302166</v>
+        <v>0.1945338863560291</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>424</v>
@@ -7011,19 +7011,19 @@
         <v>458521</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>420930</v>
+        <v>418768</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>502685</v>
+        <v>501398</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1667020692655174</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1530355144314437</v>
+        <v>0.1522494214262334</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.182758647125909</v>
+        <v>0.182290619281999</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>844</v>
@@ -7032,19 +7032,19 @@
         <v>918101</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>858483</v>
+        <v>865020</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>980398</v>
+        <v>976079</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1722260177838288</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1610423188040322</v>
+        <v>0.162268652310587</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1839123632545862</v>
+        <v>0.1831021217937045</v>
       </c>
     </row>
     <row r="45">
@@ -7061,19 +7061,19 @@
         <v>982081</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>934791</v>
+        <v>931893</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1032828</v>
+        <v>1030584</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3806148569589646</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.362287317003319</v>
+        <v>0.3611641249659141</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4002823552687216</v>
+        <v>0.3994125257962172</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>937</v>
@@ -7082,19 +7082,19 @@
         <v>1005691</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>951541</v>
+        <v>953857</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1052771</v>
+        <v>1056815</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3656340437644883</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3459468296660291</v>
+        <v>0.3467888629707878</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3827504840442671</v>
+        <v>0.384220982824592</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1865</v>
@@ -7103,19 +7103,19 @@
         <v>1987772</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1920616</v>
+        <v>1910966</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2058677</v>
+        <v>2055089</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.372885170749054</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3602874523905343</v>
+        <v>0.3584771377461179</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3861861700686963</v>
+        <v>0.3855131670091605</v>
       </c>
     </row>
     <row r="46">
@@ -7132,19 +7132,19 @@
         <v>625695</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>579069</v>
+        <v>579976</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>669240</v>
+        <v>671014</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2424939247968211</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2244235902281318</v>
+        <v>0.2247753916651454</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2593703190283125</v>
+        <v>0.2600578912688153</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>779</v>
@@ -7153,19 +7153,19 @@
         <v>837180</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>785293</v>
+        <v>789701</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>885549</v>
+        <v>883904</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3043693001092291</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.285505082378481</v>
+        <v>0.2871075984472827</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3219547452854971</v>
+        <v>0.3213563834994195</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1364</v>
@@ -7174,19 +7174,19 @@
         <v>1462875</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1390673</v>
+        <v>1397773</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1526488</v>
+        <v>1532840</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2744199109950679</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.260875557083148</v>
+        <v>0.2622075522654518</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2863531839084041</v>
+        <v>0.2875446735227486</v>
       </c>
     </row>
     <row r="47">
@@ -7203,19 +7203,19 @@
         <v>129255</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>107339</v>
+        <v>107313</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>152765</v>
+        <v>152413</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05009388771908402</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04160041086983085</v>
+        <v>0.04159025040450341</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05920569945025577</v>
+        <v>0.05906895788928365</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>124</v>
@@ -7224,19 +7224,19 @@
         <v>135701</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>114351</v>
+        <v>114949</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>161350</v>
+        <v>161785</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04933620145295469</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04157418334029042</v>
+        <v>0.04179143175107383</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05866111855089769</v>
+        <v>0.0588192941918458</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>245</v>
@@ -7245,19 +7245,19 @@
         <v>264956</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>233726</v>
+        <v>233617</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>302920</v>
+        <v>300910</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04970294251426043</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04384458110424565</v>
+        <v>0.04382413071699347</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05682454073085834</v>
+        <v>0.05644749255096607</v>
       </c>
     </row>
     <row r="48">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7234</v>
+        <v>7360</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002267722350680396</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007843663932868436</v>
+        <v>0.007979939725040405</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -7704,19 +7704,19 @@
         <v>3181</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8681</v>
+        <v>8610</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003071765189067209</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0008930271488888834</v>
+        <v>0.0008914331942905709</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008383151762369787</v>
+        <v>0.008314220815757474</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -7725,19 +7725,19 @@
         <v>5273</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11658</v>
+        <v>11885</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002692995780093575</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0009796301846057287</v>
+        <v>0.0009783827436812042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005954244045839663</v>
+        <v>0.006070497391677684</v>
       </c>
     </row>
     <row r="7">
@@ -7754,19 +7754,19 @@
         <v>9414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4052</v>
+        <v>4321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18965</v>
+        <v>18363</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01020727880883486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004393176263552849</v>
+        <v>0.004685003291983722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02056251276986786</v>
+        <v>0.01990991348944951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7775,19 +7775,19 @@
         <v>6390</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2645</v>
+        <v>2481</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13539</v>
+        <v>14585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006170979356177864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002554115126477241</v>
+        <v>0.002396118189133201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01307376873359619</v>
+        <v>0.0140842858804812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -7796,19 +7796,19 @@
         <v>15805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9304</v>
+        <v>8739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27009</v>
+        <v>26149</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008072403863845695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004752115375874695</v>
+        <v>0.004463397344821292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01379488219938008</v>
+        <v>0.01335568041326308</v>
       </c>
     </row>
     <row r="8">
@@ -7825,19 +7825,19 @@
         <v>37452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27456</v>
+        <v>25876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51257</v>
+        <v>50752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04060623619110776</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02976866302394339</v>
+        <v>0.02805528857354484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05557407269679836</v>
+        <v>0.05502667867629277</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -7846,19 +7846,19 @@
         <v>45929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33430</v>
+        <v>34348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60619</v>
+        <v>61853</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04435121740297973</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03228146827861257</v>
+        <v>0.03316806800520503</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05853760118534559</v>
+        <v>0.05972926224107137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -7867,19 +7867,19 @@
         <v>83381</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67857</v>
+        <v>66624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104124</v>
+        <v>103858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04258702742140601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03465851750566637</v>
+        <v>0.0340282878278592</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05318191709684131</v>
+        <v>0.05304597210085389</v>
       </c>
     </row>
     <row r="9">
@@ -7896,19 +7896,19 @@
         <v>180307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>158085</v>
+        <v>157178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>209230</v>
+        <v>205622</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1954922777709341</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.17139845536203</v>
+        <v>0.1704155638342925</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2268506682017435</v>
+        <v>0.2229388228633053</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>197</v>
@@ -7917,19 +7917,19 @@
         <v>200331</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173993</v>
+        <v>177026</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>225952</v>
+        <v>226287</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1934514870209523</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1680172812880312</v>
+        <v>0.1709464247415958</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2181922959612075</v>
+        <v>0.2185158869851862</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>363</v>
@@ -7938,19 +7938,19 @@
         <v>380639</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>344956</v>
+        <v>347477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>417856</v>
+        <v>422472</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1944128650337959</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1761876716179542</v>
+        <v>0.177475309961272</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2134220166144159</v>
+        <v>0.2157797067348845</v>
       </c>
     </row>
     <row r="10">
@@ -7967,19 +7967,19 @@
         <v>478540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>446233</v>
+        <v>447986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>508717</v>
+        <v>509781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5188417764554359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4838135182347671</v>
+        <v>0.4857147501629207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5515602583287867</v>
+        <v>0.5527135728679956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>504</v>
@@ -7988,19 +7988,19 @@
         <v>543157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>512433</v>
+        <v>510383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>576873</v>
+        <v>576102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5245033574579869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4948349666684688</v>
+        <v>0.4928554786435617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5570618046341411</v>
+        <v>0.5563174823113293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>964</v>
@@ -8009,19 +8009,19 @@
         <v>1021697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>972338</v>
+        <v>978284</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1069291</v>
+        <v>1067715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5218362934810289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4966260153233471</v>
+        <v>0.499662788173926</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5461449414863376</v>
+        <v>0.5453403465561298</v>
       </c>
     </row>
     <row r="11">
@@ -8038,19 +8038,19 @@
         <v>214518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188202</v>
+        <v>187572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>242562</v>
+        <v>241469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2325847084230069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2040522031817667</v>
+        <v>0.2033693333943995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2629902143448405</v>
+        <v>0.2618044431848304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -8059,19 +8059,19 @@
         <v>236576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209329</v>
+        <v>208520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266495</v>
+        <v>266888</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.228451193572836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2021398737946233</v>
+        <v>0.2013590093732892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2573428425302018</v>
+        <v>0.2577224026476482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>420</v>
@@ -8080,19 +8080,19 @@
         <v>451094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>415458</v>
+        <v>417622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>493134</v>
+        <v>492894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2303984144198299</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2121972546309807</v>
+        <v>0.2133021686820708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2518704769384219</v>
+        <v>0.2517479924101085</v>
       </c>
     </row>
     <row r="12">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4632</v>
+        <v>4626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001357387768538056</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006828266239446684</v>
+        <v>0.006818813358910753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6811</v>
+        <v>6871</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002581769783583377</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009094800781790863</v>
+        <v>0.009175554014493435</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -8273,19 +8273,19 @@
         <v>2854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7719</v>
+        <v>7808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001999807755324174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006445917801695359</v>
+        <v>0.0006458795427036985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005408272679927672</v>
+        <v>0.005470448594710627</v>
       </c>
     </row>
     <row r="15">
@@ -8302,19 +8302,19 @@
         <v>8346</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4117</v>
+        <v>4073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16584</v>
+        <v>15620</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0123028386064683</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006068495004520936</v>
+        <v>0.006003874297013423</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.024446763897246</v>
+        <v>0.02302581957312642</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8943</v>
+        <v>8725</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002094004552590464</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01194272145727257</v>
+        <v>0.01165116526867572</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -8344,19 +8344,19 @@
         <v>9914</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5167</v>
+        <v>4558</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18311</v>
+        <v>17993</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00694637391047952</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003620483157391335</v>
+        <v>0.003193704881825853</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01282957882739039</v>
+        <v>0.01260698708672523</v>
       </c>
     </row>
     <row r="16">
@@ -8373,19 +8373,19 @@
         <v>19651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11721</v>
+        <v>11740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30548</v>
+        <v>29263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0289674108093088</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01727720704150739</v>
+        <v>0.01730610445297338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04503007159822647</v>
+        <v>0.04313547488083577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -8394,19 +8394,19 @@
         <v>21477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13516</v>
+        <v>13384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33426</v>
+        <v>33925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02867914217585988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01804816895922242</v>
+        <v>0.01787218881102311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04463591978697685</v>
+        <v>0.04530229323010955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -8415,19 +8415,19 @@
         <v>41128</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29239</v>
+        <v>29173</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55233</v>
+        <v>54871</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02881615937845186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0204860915536169</v>
+        <v>0.02043980035965964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03869879774324958</v>
+        <v>0.03844554472464772</v>
       </c>
     </row>
     <row r="17">
@@ -8444,19 +8444,19 @@
         <v>99800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81340</v>
+        <v>82425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119079</v>
+        <v>121126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1471128575195216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.119901726346151</v>
+        <v>0.1215016170666675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1755316777018009</v>
+        <v>0.1785502924773084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -8465,19 +8465,19 @@
         <v>106747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88576</v>
+        <v>88296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128083</v>
+        <v>127550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1425452488181501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1182808242351028</v>
+        <v>0.1179059649362481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.17103687845499</v>
+        <v>0.1703247068524545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>195</v>
@@ -8486,19 +8486,19 @@
         <v>206547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>181956</v>
+        <v>180288</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237905</v>
+        <v>232579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1447162826878743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1274870407869485</v>
+        <v>0.1263185193083072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1666874632381794</v>
+        <v>0.1629557141620627</v>
       </c>
     </row>
     <row r="18">
@@ -8515,19 +8515,19 @@
         <v>304634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>278315</v>
+        <v>279245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>329272</v>
+        <v>329595</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4490558440113877</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.410258639603296</v>
+        <v>0.4116299055215064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4853739807148558</v>
+        <v>0.4858506968503956</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>314</v>
@@ -8536,19 +8536,19 @@
         <v>325805</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>297113</v>
+        <v>296308</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>351626</v>
+        <v>353363</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4350657757882698</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3967510888626932</v>
+        <v>0.3956764961375252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.469546303120304</v>
+        <v>0.4718660319733726</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>609</v>
@@ -8557,19 +8557,19 @@
         <v>630439</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>592516</v>
+        <v>594012</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>667206</v>
+        <v>667197</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4417154066866042</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4151443481805923</v>
+        <v>0.416192730955085</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.467475677492499</v>
+        <v>0.4674697790163375</v>
       </c>
     </row>
     <row r="19">
@@ -8586,19 +8586,19 @@
         <v>215736</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>195199</v>
+        <v>192795</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241427</v>
+        <v>238993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.318012970482409</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2877397373296179</v>
+        <v>0.2841956030930399</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3558831701050869</v>
+        <v>0.3522951644673242</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>234</v>
@@ -8607,19 +8607,19 @@
         <v>250217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225437</v>
+        <v>223013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>277330</v>
+        <v>276965</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.334129257739104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3010382376146546</v>
+        <v>0.2978019874790816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3703339360674883</v>
+        <v>0.3698474519332388</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>448</v>
@@ -8628,19 +8628,19 @@
         <v>465954</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>431551</v>
+        <v>432610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>504459</v>
+        <v>504094</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3264690119133214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3023649507643882</v>
+        <v>0.3031068275765652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3534480031107147</v>
+        <v>0.3531917905276108</v>
       </c>
     </row>
     <row r="20">
@@ -8657,19 +8657,19 @@
         <v>29300</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19982</v>
+        <v>19139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41695</v>
+        <v>40229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04319069080236664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02945538927664546</v>
+        <v>0.02821302721140155</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06146131148920114</v>
+        <v>0.059301127316458</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -8678,19 +8678,19 @@
         <v>41116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28524</v>
+        <v>29601</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55178</v>
+        <v>55237</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0549048011424424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0380891973373221</v>
+        <v>0.03952793542063703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07368268428990049</v>
+        <v>0.07376044914406665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -8699,19 +8699,19 @@
         <v>70416</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53258</v>
+        <v>55526</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88319</v>
+        <v>88571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04933695766794457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03731472120423075</v>
+        <v>0.03890395253657408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06188080020720035</v>
+        <v>0.06205695021232802</v>
       </c>
     </row>
     <row r="21">
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5171</v>
+        <v>4494</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001379071433273846</v>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007939958088028982</v>
+        <v>0.00690030164912417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4513</v>
+        <v>4098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007316123858614498</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003676429619244278</v>
+        <v>0.003338376895507166</v>
       </c>
     </row>
     <row r="23">
@@ -8866,19 +8866,19 @@
         <v>14137</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7808</v>
+        <v>7822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25256</v>
+        <v>24106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0217066137438505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01198828487366071</v>
+        <v>0.01201091648397895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0387801574063887</v>
+        <v>0.0370132801309183</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -8887,19 +8887,19 @@
         <v>7928</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2935</v>
+        <v>3539</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16031</v>
+        <v>16321</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01375463180410357</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005093067343421959</v>
+        <v>0.006140390120075952</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02781480916521082</v>
+        <v>0.02831719194727976</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -8908,19 +8908,19 @@
         <v>22064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13443</v>
+        <v>13860</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34439</v>
+        <v>34679</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01797324466120142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01095015949687226</v>
+        <v>0.01129000988123144</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02805302475951589</v>
+        <v>0.02824849075648223</v>
       </c>
     </row>
     <row r="24">
@@ -8937,19 +8937,19 @@
         <v>30554</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20073</v>
+        <v>20333</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44161</v>
+        <v>43475</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04691433631476052</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0308216700225749</v>
+        <v>0.03121987646851475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06780741052269187</v>
+        <v>0.06675397078963613</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -8958,19 +8958,19 @@
         <v>33970</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24338</v>
+        <v>23654</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47460</v>
+        <v>46209</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05893982815362364</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04222767840100682</v>
+        <v>0.041040826517225</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08234510335299952</v>
+        <v>0.08017398144104791</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -8979,19 +8979,19 @@
         <v>64524</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48978</v>
+        <v>49996</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>81487</v>
+        <v>81361</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05256017401598261</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03989646728615846</v>
+        <v>0.04072615284333224</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06637773136558531</v>
+        <v>0.06627535096191349</v>
       </c>
     </row>
     <row r="25">
@@ -9008,19 +9008,19 @@
         <v>105884</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88450</v>
+        <v>89445</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127362</v>
+        <v>127258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1625804605579573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1358111579188859</v>
+        <v>0.1373395399519052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1955603798320486</v>
+        <v>0.195400428931086</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -9029,19 +9029,19 @@
         <v>94685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77846</v>
+        <v>78195</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113151</v>
+        <v>114093</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1642818715676537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1350647605402016</v>
+        <v>0.1356718227303321</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1963211573157661</v>
+        <v>0.1979556301674227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>191</v>
@@ -9050,19 +9050,19 @@
         <v>200569</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174342</v>
+        <v>175788</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227432</v>
+        <v>226294</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1633792545326682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1420155330835132</v>
+        <v>0.1431932060242131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1852617610792162</v>
+        <v>0.1843350380491359</v>
       </c>
     </row>
     <row r="26">
@@ -9079,19 +9079,19 @@
         <v>197950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>172709</v>
+        <v>175313</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>221048</v>
+        <v>222110</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3039443872441538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2651885326884035</v>
+        <v>0.2691866947899768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3394105777376014</v>
+        <v>0.3410417835658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -9100,19 +9100,19 @@
         <v>159430</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137710</v>
+        <v>137965</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>180552</v>
+        <v>182217</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2766164995135393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2389320415956807</v>
+        <v>0.2393743315208991</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3132635868699175</v>
+        <v>0.3161534981661409</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>345</v>
@@ -9121,19 +9121,19 @@
         <v>357379</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>324702</v>
+        <v>327179</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>389948</v>
+        <v>390016</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2911142410088333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2644959275786638</v>
+        <v>0.266513274370492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3176437723605117</v>
+        <v>0.3176990168507776</v>
       </c>
     </row>
     <row r="27">
@@ -9150,19 +9150,19 @@
         <v>222461</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>195957</v>
+        <v>199247</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>246174</v>
+        <v>247323</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3415814818709373</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3008847769187372</v>
+        <v>0.3059369866882267</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3779908419366658</v>
+        <v>0.3797551884505826</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>183</v>
@@ -9171,19 +9171,19 @@
         <v>195298</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>174211</v>
+        <v>170183</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>220017</v>
+        <v>218600</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3388481541691953</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3022628775112909</v>
+        <v>0.2952736966137214</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.381737431872281</v>
+        <v>0.3792790194193077</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>401</v>
@@ -9192,19 +9192,19 @@
         <v>417759</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>381251</v>
+        <v>382625</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>450735</v>
+        <v>451454</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3402982142262479</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3105593389045479</v>
+        <v>0.3116787093915946</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.36716026962057</v>
+        <v>0.3677459392503447</v>
       </c>
     </row>
     <row r="28">
@@ -9221,19 +9221,19 @@
         <v>73612</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58548</v>
+        <v>58849</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>92369</v>
+        <v>91351</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1130281960608802</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08989884531048262</v>
+        <v>0.09036105934372238</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1418289417734693</v>
+        <v>0.140265530209254</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -9242,19 +9242,19 @@
         <v>81800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>65421</v>
+        <v>64707</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>99242</v>
+        <v>100374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1419253752839918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.113507388436961</v>
+        <v>0.1122694598560501</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1721879575497662</v>
+        <v>0.1741524527999793</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>145</v>
@@ -9263,19 +9263,19 @@
         <v>155411</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>129999</v>
+        <v>132011</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180091</v>
+        <v>180687</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.126595107593726</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1058943177733299</v>
+        <v>0.1075336620690072</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1466988249087512</v>
+        <v>0.147183704930426</v>
       </c>
     </row>
     <row r="29">
@@ -9292,19 +9292,19 @@
         <v>5774</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2166</v>
+        <v>2580</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12393</v>
+        <v>11597</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008865452774186421</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003325603569180005</v>
+        <v>0.003962053716942239</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01902887012316638</v>
+        <v>0.01780638932214785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -9313,19 +9313,19 @@
         <v>3247</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8918</v>
+        <v>8940</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00563363950789263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001685138720227503</v>
+        <v>0.001686967238519401</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01547284192336186</v>
+        <v>0.01551131076933347</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -9334,19 +9334,19 @@
         <v>9021</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4102</v>
+        <v>3910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16834</v>
+        <v>17435</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007348151575479178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003341514557758133</v>
+        <v>0.003185400676136316</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01371255384781426</v>
+        <v>0.0142022117269217</v>
       </c>
     </row>
     <row r="30">
@@ -9438,19 +9438,19 @@
         <v>4029</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1075</v>
+        <v>1107</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10866</v>
+        <v>10378</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01157842177018594</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003089623166420342</v>
+        <v>0.003181693562906564</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03122582388627688</v>
+        <v>0.02982260388307723</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -9459,19 +9459,19 @@
         <v>2875</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8952</v>
+        <v>8958</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008698259155904362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002504750644204968</v>
+        <v>0.002506466371015284</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02708156466205902</v>
+        <v>0.02710050245281807</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -9480,19 +9480,19 @@
         <v>6904</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2972</v>
+        <v>2931</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12875</v>
+        <v>13002</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01017537512374906</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00437946713521733</v>
+        <v>0.004319604262467774</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01897507129835244</v>
+        <v>0.0191623311177226</v>
       </c>
     </row>
     <row r="32">
@@ -9509,19 +9509,19 @@
         <v>27095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18151</v>
+        <v>18306</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39483</v>
+        <v>38970</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07786045421653479</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05216006373966632</v>
+        <v>0.05260481820488967</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1134577565322047</v>
+        <v>0.1119847344138262</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -9530,19 +9530,19 @@
         <v>17480</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10915</v>
+        <v>10488</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27630</v>
+        <v>27844</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05288235883692097</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0330198637069143</v>
+        <v>0.03172988856479622</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.083589143397136</v>
+        <v>0.08423723762603856</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -9551,19 +9551,19 @@
         <v>44575</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32822</v>
+        <v>32328</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58340</v>
+        <v>58575</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06569258814433057</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04837157233093214</v>
+        <v>0.0476436979109473</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08597864633599149</v>
+        <v>0.08632472934931271</v>
       </c>
     </row>
     <row r="33">
@@ -9580,19 +9580,19 @@
         <v>41293</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>29637</v>
+        <v>28397</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>55534</v>
+        <v>53796</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1186608147499379</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08516589547064479</v>
+        <v>0.08160157815005081</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1595827499367376</v>
+        <v>0.1545866466368292</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>24</v>
@@ -9601,19 +9601,19 @@
         <v>25500</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>16820</v>
+        <v>16807</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>37340</v>
+        <v>37472</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07714531130949231</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05088681351218758</v>
+        <v>0.05084757817420719</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1129652359143131</v>
+        <v>0.1133633080117176</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>60</v>
@@ -9622,19 +9622,19 @@
         <v>66794</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>51446</v>
+        <v>51204</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>83912</v>
+        <v>84160</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09843689142407203</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07581910671849268</v>
+        <v>0.07546139511019134</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1236656761712024</v>
+        <v>0.1240309591491879</v>
       </c>
     </row>
     <row r="34">
@@ -9651,19 +9651,19 @@
         <v>66279</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>52994</v>
+        <v>51464</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>83043</v>
+        <v>81618</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.190459789243292</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1522847890488732</v>
+        <v>0.1478873669159996</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.238633198631827</v>
+        <v>0.2345370257582831</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>70</v>
@@ -9672,19 +9672,19 @@
         <v>75551</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>60344</v>
+        <v>60878</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>92013</v>
+        <v>92932</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.228564615673881</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.182559858537856</v>
+        <v>0.1841739308305221</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2783681849681714</v>
+        <v>0.2811455328038235</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>131</v>
@@ -9693,19 +9693,19 @@
         <v>141830</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>120760</v>
+        <v>121488</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>166603</v>
+        <v>163966</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2090222303608166</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1779700970762266</v>
+        <v>0.1790430911715212</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2455310803687675</v>
+        <v>0.2416448504236893</v>
       </c>
     </row>
     <row r="35">
@@ -9722,19 +9722,19 @@
         <v>88090</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>72808</v>
+        <v>71981</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>106408</v>
+        <v>105039</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2531361768661745</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.209219366919468</v>
+        <v>0.2068449209667549</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3057722156287682</v>
+        <v>0.3018388078301346</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>83</v>
@@ -9743,19 +9743,19 @@
         <v>89118</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74034</v>
+        <v>73573</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>106813</v>
+        <v>107785</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2696070227125201</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2239750331811171</v>
+        <v>0.2225787564823814</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3231405930990993</v>
+        <v>0.3260823776248348</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -9764,19 +9764,19 @@
         <v>177208</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>156053</v>
+        <v>152985</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>202458</v>
+        <v>200312</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2611598089049018</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.229982327221931</v>
+        <v>0.225462031282573</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.298372327755582</v>
+        <v>0.2952097298119725</v>
       </c>
     </row>
     <row r="36">
@@ -9793,19 +9793,19 @@
         <v>79964</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>65360</v>
+        <v>64474</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>96089</v>
+        <v>96737</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2297838434308203</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1878187270524305</v>
+        <v>0.1852722238042696</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2761210155782815</v>
+        <v>0.2779833515678179</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -9814,19 +9814,19 @@
         <v>76822</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>61263</v>
+        <v>61963</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>93293</v>
+        <v>94292</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2324103320856759</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1853393630886337</v>
+        <v>0.1874550914379221</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2822402617412405</v>
+        <v>0.2852619713504535</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>148</v>
@@ -9835,19 +9835,19 @@
         <v>156786</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>133607</v>
+        <v>134854</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>178092</v>
+        <v>179489</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2310633149720544</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1969023524463198</v>
+        <v>0.1987414374023568</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2624631524903723</v>
+        <v>0.2645212626006715</v>
       </c>
     </row>
     <row r="37">
@@ -9864,19 +9864,19 @@
         <v>37088</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24906</v>
+        <v>26141</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>49996</v>
+        <v>49417</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1065763759672195</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07157037243658639</v>
+        <v>0.07511988806773141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1436671047606832</v>
+        <v>0.1420047676289167</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -9885,19 +9885,19 @@
         <v>32240</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21611</v>
+        <v>23232</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44386</v>
+        <v>43608</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09753445126107037</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06538064924223808</v>
+        <v>0.07028433087289929</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1342797781372279</v>
+        <v>0.1319277051647451</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>65</v>
@@ -9906,19 +9906,19 @@
         <v>69328</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55014</v>
+        <v>54633</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>85892</v>
+        <v>85263</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1021716794846698</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08107660105590152</v>
+        <v>0.08051467510605408</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1265829399108759</v>
+        <v>0.1256561543721024</v>
       </c>
     </row>
     <row r="38">
@@ -9935,19 +9935,19 @@
         <v>4157</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9889</v>
+        <v>10308</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01194412375583497</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003045563036028516</v>
+        <v>0.003091978383703012</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02841578631808923</v>
+        <v>0.02961978609742575</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -9956,19 +9956,19 @@
         <v>10960</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5594</v>
+        <v>5767</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>19091</v>
+        <v>18408</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03315764896453499</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01692440183295124</v>
+        <v>0.0174454798440861</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05775710821442912</v>
+        <v>0.05568929775328463</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -9977,19 +9977,19 @@
         <v>15117</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>8729</v>
+        <v>8714</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24421</v>
+        <v>24716</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02227811158540585</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01286378293150177</v>
+        <v>0.01284227405054532</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0359906043943301</v>
+        <v>0.0364246133473972</v>
       </c>
     </row>
     <row r="39">
@@ -10081,19 +10081,19 @@
         <v>4927</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10980</v>
+        <v>11376</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001895166124719392</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0007031662610205668</v>
+        <v>0.0007034089339992776</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004222990231417565</v>
+        <v>0.004375449807902976</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -10102,19 +10102,19 @@
         <v>2875</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7616</v>
+        <v>7140</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001068308957195804</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0003053459738399352</v>
+        <v>0.0003050499647832368</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.002829802049341503</v>
+        <v>0.002653123921915709</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -10123,19 +10123,19 @@
         <v>7803</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3743</v>
+        <v>3076</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>14435</v>
+        <v>15074</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001474599792241034</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0007074626493528813</v>
+        <v>0.0005812940941019155</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00272805180808634</v>
+        <v>0.002848814898839564</v>
       </c>
     </row>
     <row r="41">
@@ -10152,19 +10152,19 @@
         <v>42153</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30193</v>
+        <v>30295</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56564</v>
+        <v>57684</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01621275416435789</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01161268266410868</v>
+        <v>0.01165196865934283</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0217557300481055</v>
+        <v>0.02218635993100153</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -10173,19 +10173,19 @@
         <v>27341</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17752</v>
+        <v>17580</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>40188</v>
+        <v>40411</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01015891993163611</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006596118929316986</v>
+        <v>0.006531936441519177</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01493247196788729</v>
+        <v>0.01501535236351569</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -10194,19 +10194,19 @@
         <v>69494</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>54118</v>
+        <v>52829</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>88996</v>
+        <v>88312</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0131335780252515</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01022765072337674</v>
+        <v>0.009984164898630984</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0168192668154589</v>
+        <v>0.01669008133288659</v>
       </c>
     </row>
     <row r="42">
@@ -10223,19 +10223,19 @@
         <v>82285</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>66322</v>
+        <v>63791</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>101455</v>
+        <v>103886</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03164835186679885</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0255087376886545</v>
+        <v>0.02453526176420821</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03902146945937538</v>
+        <v>0.03995652804250326</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>61</v>
@@ -10244,19 +10244,19 @@
         <v>64220</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>49153</v>
+        <v>50104</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>81756</v>
+        <v>82571</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02386164501902158</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0182633292643777</v>
+        <v>0.01861684885853522</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03037739475825563</v>
+        <v>0.03068047397889874</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>134</v>
@@ -10265,19 +10265,19 @@
         <v>146505</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>120968</v>
+        <v>123055</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>172862</v>
+        <v>173198</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02768778059804901</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02286168859775177</v>
+        <v>0.02325604024714369</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03266910258343615</v>
+        <v>0.03273248202660131</v>
       </c>
     </row>
     <row r="43">
@@ -10294,19 +10294,19 @@
         <v>201228</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>174592</v>
+        <v>171902</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>232028</v>
+        <v>228760</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07739621039245706</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06715149802221304</v>
+        <v>0.06611677571911664</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08924232891651332</v>
+        <v>0.08798524386620221</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>187</v>
@@ -10315,19 +10315,19 @@
         <v>198103</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>173556</v>
+        <v>172772</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>230427</v>
+        <v>229151</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07360793780404058</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06448710413965296</v>
+        <v>0.06419568385297167</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08561838330166482</v>
+        <v>0.08514406783611375</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>374</v>
@@ -10336,19 +10336,19 @@
         <v>399332</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>363427</v>
+        <v>360432</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>442226</v>
+        <v>443530</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.075469372273958</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06868383189337289</v>
+        <v>0.06811773396074609</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0835759312303638</v>
+        <v>0.08382232785217984</v>
       </c>
     </row>
     <row r="44">
@@ -10365,19 +10365,19 @@
         <v>423292</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>384093</v>
+        <v>383279</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>459788</v>
+        <v>460296</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1628058965049511</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.14772923040989</v>
+        <v>0.1474161202158943</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1768431395809281</v>
+        <v>0.177038473289587</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>386</v>
@@ -10386,19 +10386,19 @@
         <v>401223</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>363141</v>
+        <v>360972</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>440854</v>
+        <v>440550</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.149079725300231</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1349297940436306</v>
+        <v>0.1341239430036579</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1638051374212747</v>
+        <v>0.1636924077944513</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>788</v>
@@ -10407,19 +10407,19 @@
         <v>824514</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>768395</v>
+        <v>766260</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>881361</v>
+        <v>873695</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1558243213196886</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.145218323432271</v>
+        <v>0.1448148737949743</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1665678202593238</v>
+        <v>0.1651189447957766</v>
       </c>
     </row>
     <row r="45">
@@ -10436,19 +10436,19 @@
         <v>787367</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>742804</v>
+        <v>737581</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>834876</v>
+        <v>835807</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3028360057630401</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2856964638528815</v>
+        <v>0.2836875198869224</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3211091142909758</v>
+        <v>0.3214672254669856</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>765</v>
@@ -10457,19 +10457,19 @@
         <v>798256</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>750948</v>
+        <v>750415</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>848313</v>
+        <v>846653</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2966027905711847</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2790250308365357</v>
+        <v>0.278826874921124</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3152021820975178</v>
+        <v>0.3145855376417748</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1521</v>
@@ -10478,19 +10478,19 @@
         <v>1585623</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1520703</v>
+        <v>1517655</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1657539</v>
+        <v>1656600</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2996655906590164</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2873965609082891</v>
+        <v>0.2868204409533448</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3132569651253433</v>
+        <v>0.3130795282244992</v>
       </c>
     </row>
     <row r="46">
@@ -10507,19 +10507,19 @@
         <v>804976</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>761572</v>
+        <v>758011</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>856232</v>
+        <v>849787</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3096090481025694</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2929148534308789</v>
+        <v>0.2915452192729212</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3293227722183005</v>
+        <v>0.3268439887069948</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>841</v>
@@ -10528,19 +10528,19 @@
         <v>907413</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>859900</v>
+        <v>858263</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>959957</v>
+        <v>955730</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3371616219065608</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3195073799006981</v>
+        <v>0.3188990606093193</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3566848138601313</v>
+        <v>0.355114436910193</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1622</v>
@@ -10549,19 +10549,19 @@
         <v>1712390</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1641921</v>
+        <v>1637602</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1783132</v>
+        <v>1786795</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3236231794062729</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3103053583810848</v>
+        <v>0.3094891490297061</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3369927422409135</v>
+        <v>0.3376850821841775</v>
       </c>
     </row>
     <row r="47">
@@ -10578,19 +10578,19 @@
         <v>253749</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>224455</v>
+        <v>225745</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>288558</v>
+        <v>284501</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09759656708110621</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08632966156232399</v>
+        <v>0.0868256769803501</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.110984750264785</v>
+        <v>0.1094245929454241</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>269</v>
@@ -10599,19 +10599,19 @@
         <v>291899</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>261856</v>
+        <v>254890</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>325256</v>
+        <v>324152</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1084590505101293</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09729614546378627</v>
+        <v>0.09470778718772796</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.120853351607825</v>
+        <v>0.12044310505754</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>509</v>
@@ -10620,19 +10620,19 @@
         <v>545648</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>504305</v>
+        <v>500170</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>591437</v>
+        <v>597923</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1031215779255225</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09530819749028527</v>
+        <v>0.09452669575762433</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1117752262486517</v>
+        <v>0.1130010035635765</v>
       </c>
     </row>
     <row r="48">
